--- a/data/924/GACC/CAT/Major Import Commodities in Quantity and Value - Historical.xlsx
+++ b/data/924/GACC/CAT/Major Import Commodities in Quantity and Value - Historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MM2"/>
+  <dimension ref="A1:MN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2122,6 +2122,11 @@
           <t>2022-02</t>
         </is>
       </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3178,6 +3183,9 @@
       </c>
       <c r="MM2" t="n">
         <v>22715786</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>30216853</v>
       </c>
     </row>
   </sheetData>
